--- a/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
+++ b/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB90F1D-7CBF-4A20-953D-5CB18A59C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A5E47-516C-4FEB-B748-A512DB2B307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>驱动基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +265,10 @@
   </si>
   <si>
     <t xml:space="preserve">    _In_ ULONG DesiredAccess,  // 权限位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核线程的堆栈大小仅有 3个物理页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +367,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +410,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2853,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3263,6 +3276,11 @@
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
+++ b/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A5E47-516C-4FEB-B748-A512DB2B307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B538A-FE1E-4021-B4C1-D238BA39A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PsCreateSystemThread(</t>
-  </si>
-  <si>
     <t xml:space="preserve">    _Out_ PHANDLE ThreadHandle,</t>
   </si>
   <si>
@@ -269,6 +266,10 @@
   </si>
   <si>
     <t>内核线程的堆栈大小仅有 3个物理页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PsCreateSystemThread(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -3235,42 +3236,42 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
@@ -3280,7 +3281,7 @@
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595E6111-DF0B-4552-83BA-694A9EE809C4}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
+++ b/09_Driver/02 字符串操作 内存申请 线程开启.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B538A-FE1E-4021-B4C1-D238BA39A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6822F-343D-4AD8-9358-587D97A65631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>驱动基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>PsCreateSystemThread(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页类型的内存，会被交换到分页文件中，反之非分页的不会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2867,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3189,98 +3193,104 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="2" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="E56" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+    <row r="62" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3290,7 +3300,7 @@
     <hyperlink ref="C40" location="Sheet2!B2" display="初始化该结构" xr:uid="{A0A87629-5BEB-42CC-A562-5DD545376A67}"/>
     <hyperlink ref="C42" location="Sheet2!B34" display="窄字符to宽字符、宽字符to窄字符" xr:uid="{2EE8055A-62AE-4FA4-95B1-CEB148F314EF}"/>
     <hyperlink ref="C44" location="Sheet2!B58" display="字符串拼接" xr:uid="{0506FC34-83A8-484C-95C6-DB294F4FD4A9}"/>
-    <hyperlink ref="B61" location="Sheet3!B3" display="6、创建内核线程" xr:uid="{57F5669B-3D1A-434B-9808-078FD2B1A63E}"/>
+    <hyperlink ref="B62" location="Sheet3!B3" display="6、创建内核线程" xr:uid="{57F5669B-3D1A-434B-9808-078FD2B1A63E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3334,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595E6111-DF0B-4552-83BA-694A9EE809C4}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
